--- a/pilrek-anon.xlsx
+++ b/pilrek-anon.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>Timestamp</t>
   </si>
@@ -95,6 +95,39 @@
   </si>
   <si>
     <t>Pegawai / Tendik</t>
+  </si>
+  <si>
+    <t>Dapat terus membawa ITB lebih baik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITB menjadi universitas yg bs memiliki dampak utk Indonesia khususnya. Bisa mensejahterakan bangsa dengan menghasilkan lulusan yg mandiri dan bisa menghasilkan teknologi yg dirasakan oleh seluruh masyarakat. </t>
+  </si>
+  <si>
+    <t>Dwi Larso (SBM / President Univ)</t>
+  </si>
+  <si>
+    <t>Karakter kepemimpinan dan leadership</t>
+  </si>
+  <si>
+    <t>Kapabilitas ybs utk memajukan riset dan industri RI</t>
+  </si>
+  <si>
+    <t>Semoga dosen bisa bertahan hidup dari riset dan tidak perlu berburu dan berebut proyek secara individualistis.</t>
+  </si>
+  <si>
+    <t>ITB 4.0 yang serba cepat, inovatif dan progresif</t>
+  </si>
+  <si>
+    <t>Kadarsah Suryadi (FTI-TI)</t>
+  </si>
+  <si>
+    <t>Megawati Santoso (FMIPA-KI)</t>
+  </si>
+  <si>
+    <t>Emansipasi, kesetaraan dan kebhinekaan</t>
+  </si>
+  <si>
+    <t>Sigit Puji Santosa (FTMD)</t>
   </si>
 </sst>
 </file>
@@ -550,6 +583,154 @@
         <v>12</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>43709.44925469907</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>43709.47289641204</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>43709.48711559028</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>43709.499099444445</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>43709.51307828704</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>43709.51807701389</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>43709.52108237268</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>43709.528781608795</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/pilrek-anon.xlsx
+++ b/pilrek-anon.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
   <si>
     <t>Timestamp</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>Sigit Puji Santosa (FTMD)</t>
+  </si>
+  <si>
+    <t>Deddy Kurniadi (FTI-TF)</t>
+  </si>
+  <si>
+    <t>Mendatangkan dana riset dan kerjasama eksternal, dalam dan luar negeri</t>
   </si>
 </sst>
 </file>
@@ -731,6 +737,40 @@
         <v>32</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>43709.54817984954</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>43709.549949305554</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
